--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Clec11a-Itga11.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Clec11a-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,57 +525,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.7478980228264</v>
+        <v>14.768619</v>
       </c>
       <c r="H2">
-        <v>14.7478980228264</v>
+        <v>44.305857</v>
       </c>
       <c r="I2">
-        <v>0.9740407664220339</v>
+        <v>0.9736679609684162</v>
       </c>
       <c r="J2">
-        <v>0.9740407664220339</v>
+        <v>0.9736679609684162</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.66221836526</v>
+        <v>24.759128</v>
       </c>
       <c r="N2">
-        <v>24.66221836526</v>
+        <v>74.277384</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9895671066967037</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9895671066967037</v>
       </c>
       <c r="Q2">
-        <v>363.7158814675309</v>
+        <v>365.658128204232</v>
       </c>
       <c r="R2">
-        <v>363.7158814675309</v>
+        <v>3290.923153838088</v>
       </c>
       <c r="S2">
-        <v>0.9740407664220339</v>
+        <v>0.9635097870187946</v>
       </c>
       <c r="T2">
-        <v>0.9740407664220339</v>
+        <v>0.9635097870187946</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -584,55 +584,179 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.393047337191939</v>
+        <v>14.768619</v>
       </c>
       <c r="H3">
-        <v>0.393047337191939</v>
+        <v>44.305857</v>
       </c>
       <c r="I3">
-        <v>0.02595923357796616</v>
+        <v>0.9736679609684162</v>
       </c>
       <c r="J3">
-        <v>0.02595923357796616</v>
+        <v>0.9736679609684162</v>
       </c>
       <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.2610326666666667</v>
+      </c>
+      <c r="N3">
+        <v>0.7830980000000001</v>
+      </c>
+      <c r="O3">
+        <v>0.0104328933032964</v>
+      </c>
+      <c r="P3">
+        <v>0.0104328933032964</v>
+      </c>
+      <c r="Q3">
+        <v>3.855092000554001</v>
+      </c>
+      <c r="R3">
+        <v>34.69582800498601</v>
+      </c>
+      <c r="S3">
+        <v>0.01015817394962165</v>
+      </c>
+      <c r="T3">
+        <v>0.01015817394962165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="G4">
+        <v>0.399405</v>
+      </c>
+      <c r="H4">
+        <v>1.198215</v>
+      </c>
+      <c r="I4">
+        <v>0.02633203903158381</v>
+      </c>
+      <c r="J4">
+        <v>0.02633203903158381</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>24.66221836526</v>
-      </c>
-      <c r="N3">
-        <v>24.66221836526</v>
-      </c>
-      <c r="O3">
+      <c r="M4">
+        <v>24.759128</v>
+      </c>
+      <c r="N4">
+        <v>74.277384</v>
+      </c>
+      <c r="O4">
+        <v>0.9895671066967037</v>
+      </c>
+      <c r="P4">
+        <v>0.9895671066967037</v>
+      </c>
+      <c r="Q4">
+        <v>9.88891951884</v>
+      </c>
+      <c r="R4">
+        <v>89.00027566956</v>
+      </c>
+      <c r="S4">
+        <v>0.02605731967790906</v>
+      </c>
+      <c r="T4">
+        <v>0.02605731967790906</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>9.693419257711579</v>
-      </c>
-      <c r="R3">
-        <v>9.693419257711579</v>
-      </c>
-      <c r="S3">
-        <v>0.02595923357796616</v>
-      </c>
-      <c r="T3">
-        <v>0.02595923357796616</v>
+      <c r="G5">
+        <v>0.399405</v>
+      </c>
+      <c r="H5">
+        <v>1.198215</v>
+      </c>
+      <c r="I5">
+        <v>0.02633203903158381</v>
+      </c>
+      <c r="J5">
+        <v>0.02633203903158381</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.2610326666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.7830980000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.0104328933032964</v>
+      </c>
+      <c r="P5">
+        <v>0.0104328933032964</v>
+      </c>
+      <c r="Q5">
+        <v>0.10425775223</v>
+      </c>
+      <c r="R5">
+        <v>0.9383197700700001</v>
+      </c>
+      <c r="S5">
+        <v>0.0002747193536747502</v>
+      </c>
+      <c r="T5">
+        <v>0.0002747193536747502</v>
       </c>
     </row>
   </sheetData>
